--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.949238666666667</v>
+        <v>0.4173876666666667</v>
       </c>
       <c r="H2">
-        <v>8.847716</v>
+        <v>1.252163</v>
       </c>
       <c r="I2">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="J2">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N2">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q2">
-        <v>0.3771496237728889</v>
+        <v>0.02692094798311111</v>
       </c>
       <c r="R2">
-        <v>3.394346613956</v>
+        <v>0.242288531848</v>
       </c>
       <c r="S2">
-        <v>0.005651733500065829</v>
+        <v>0.0008442551206625069</v>
       </c>
       <c r="T2">
-        <v>0.005651733500065829</v>
+        <v>0.0008442551206625071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.949238666666667</v>
+        <v>0.4173876666666667</v>
       </c>
       <c r="H3">
-        <v>8.847716</v>
+        <v>1.252163</v>
       </c>
       <c r="I3">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="J3">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P3">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q3">
-        <v>31.32047618651822</v>
+        <v>4.43259496836689</v>
       </c>
       <c r="R3">
-        <v>281.884285678664</v>
+        <v>39.893354715302</v>
       </c>
       <c r="S3">
-        <v>0.4693494924654984</v>
+        <v>0.1390085149384155</v>
       </c>
       <c r="T3">
-        <v>0.4693494924654984</v>
+        <v>0.1390085149384156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.949238666666667</v>
+        <v>0.4173876666666667</v>
       </c>
       <c r="H4">
-        <v>8.847716</v>
+        <v>1.252163</v>
       </c>
       <c r="I4">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="J4">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N4">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q4">
-        <v>6.113509273758666</v>
+        <v>1.488773807418334</v>
       </c>
       <c r="R4">
-        <v>55.021583463828</v>
+        <v>13.398964266765</v>
       </c>
       <c r="S4">
-        <v>0.09161330938055336</v>
+        <v>0.04668873143730547</v>
       </c>
       <c r="T4">
-        <v>0.09161330938055336</v>
+        <v>0.04668873143730548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.662493</v>
       </c>
       <c r="I5">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616024</v>
       </c>
       <c r="J5">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N5">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q5">
-        <v>0.1561202752236667</v>
+        <v>0.07874197172533334</v>
       </c>
       <c r="R5">
-        <v>1.405082477013</v>
+        <v>0.7086777455280001</v>
       </c>
       <c r="S5">
-        <v>0.002339522921153505</v>
+        <v>0.002469389743699972</v>
       </c>
       <c r="T5">
-        <v>0.002339522921153505</v>
+        <v>0.002469389743699972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.662493</v>
       </c>
       <c r="I6">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616024</v>
       </c>
       <c r="J6">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>31.859554</v>
       </c>
       <c r="O6">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P6">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q6">
         <v>12.96504372312467</v>
@@ -818,10 +818,10 @@
         <v>116.685393508122</v>
       </c>
       <c r="S6">
-        <v>0.1942862124765805</v>
+        <v>0.40659060593736</v>
       </c>
       <c r="T6">
-        <v>0.1942862124765805</v>
+        <v>0.40659060593736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.662493</v>
       </c>
       <c r="I7">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616024</v>
       </c>
       <c r="J7">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N7">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q7">
-        <v>2.530674009041</v>
+        <v>4.354563781435002</v>
       </c>
       <c r="R7">
-        <v>22.776066081369</v>
+        <v>39.19107403291501</v>
       </c>
       <c r="S7">
-        <v>0.03792313228782559</v>
+        <v>0.1365614157805423</v>
       </c>
       <c r="T7">
-        <v>0.03792313228782559</v>
+        <v>0.1365614157805423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.034948</v>
+        <v>0.599287</v>
       </c>
       <c r="H8">
-        <v>3.104844</v>
+        <v>1.797861</v>
       </c>
       <c r="I8">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="J8">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N8">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O8">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P8">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q8">
-        <v>0.1323494952226667</v>
+        <v>0.03865321245066666</v>
       </c>
       <c r="R8">
-        <v>1.191145457004</v>
+        <v>0.347878912056</v>
       </c>
       <c r="S8">
-        <v>0.001983308556386574</v>
+        <v>0.001212185119261163</v>
       </c>
       <c r="T8">
-        <v>0.001983308556386574</v>
+        <v>0.001212185119261163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.034948</v>
+        <v>0.599287</v>
       </c>
       <c r="H9">
-        <v>3.104844</v>
+        <v>1.797861</v>
       </c>
       <c r="I9">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="J9">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.859554</v>
       </c>
       <c r="O9">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P9">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q9">
-        <v>10.99099389773067</v>
+        <v>6.364338845999334</v>
       </c>
       <c r="R9">
-        <v>98.91894507957599</v>
+        <v>57.279049613994</v>
       </c>
       <c r="S9">
-        <v>0.1647043096302535</v>
+        <v>0.1995890212981015</v>
       </c>
       <c r="T9">
-        <v>0.1647043096302535</v>
+        <v>0.1995890212981016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.034948</v>
+        <v>0.599287</v>
       </c>
       <c r="H10">
-        <v>3.104844</v>
+        <v>1.797861</v>
       </c>
       <c r="I10">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="J10">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N10">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O10">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P10">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q10">
-        <v>2.145355093628</v>
+        <v>2.137587810995</v>
       </c>
       <c r="R10">
-        <v>19.308195842652</v>
+        <v>19.238290298955</v>
       </c>
       <c r="S10">
-        <v>0.03214897878168273</v>
+        <v>0.06703588062465146</v>
       </c>
       <c r="T10">
-        <v>0.03214897878168273</v>
+        <v>0.06703588062465148</v>
       </c>
     </row>
   </sheetData>
